--- a/Mini_Project/Data Collection/Schools.xlsx
+++ b/Mini_Project/Data Collection/Schools.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\NITK\S2\Mini_Project\Data Collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\NITK\S2\NitkS2\Mini_Project\Data Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35CC43A-B287-4064-8E9B-21393DD18CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D14D6F-4C7C-4D38-9282-5C0A3B68B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>KRHS - 16032</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>National H S S Vattoli - 16061</t>
+  </si>
+  <si>
+    <t>G V H S S Meppayur-16014</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,10 +396,11 @@
     <col min="3" max="3" width="13.21875" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" customWidth="1"/>
     <col min="5" max="5" width="27.5546875" customWidth="1"/>
-    <col min="6" max="6" width="36.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,8 +419,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>186</v>
       </c>
@@ -435,8 +442,11 @@
       <c r="F2">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>173</v>
       </c>
@@ -455,8 +465,11 @@
       <c r="F3">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>94</v>
       </c>
@@ -475,8 +488,11 @@
       <c r="F4">
         <v>136</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>108</v>
       </c>
@@ -495,8 +511,11 @@
       <c r="F5">
         <v>216</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>116</v>
       </c>
@@ -515,8 +534,11 @@
       <c r="F6">
         <v>490</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>114</v>
       </c>
@@ -535,8 +557,11 @@
       <c r="F7">
         <v>505</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>24</v>
       </c>
@@ -555,8 +580,11 @@
       <c r="F8">
         <v>479</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>41</v>
       </c>
@@ -575,8 +603,11 @@
       <c r="F9">
         <v>459</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>60</v>
       </c>
@@ -595,8 +626,11 @@
       <c r="F10">
         <v>443</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>67</v>
       </c>
@@ -615,8 +649,11 @@
       <c r="F11">
         <v>270</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>98</v>
       </c>
@@ -635,8 +672,11 @@
       <c r="F12">
         <v>226</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>110</v>
       </c>
@@ -655,8 +695,11 @@
       <c r="F13">
         <v>217</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>543</v>
       </c>
@@ -669,8 +712,11 @@
       <c r="F14">
         <v>255</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>559</v>
       </c>
@@ -683,8 +729,11 @@
       <c r="F15">
         <v>298</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>12</v>
       </c>
@@ -697,8 +746,11 @@
       <c r="F16">
         <v>303</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>24</v>
       </c>
@@ -711,8 +763,11 @@
       <c r="F17">
         <v>369</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>57</v>
       </c>
@@ -725,8 +780,11 @@
       <c r="F18">
         <v>191</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>92</v>
       </c>
@@ -740,7 +798,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>420</v>
       </c>
@@ -754,7 +812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>154</v>
       </c>
@@ -768,7 +826,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>92</v>
       </c>
@@ -782,7 +840,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>382</v>
       </c>
@@ -796,7 +854,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>358</v>
       </c>
@@ -807,7 +865,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>372</v>
       </c>
@@ -818,7 +876,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>389</v>
       </c>
@@ -829,7 +887,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>429</v>
       </c>
@@ -840,7 +898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>425</v>
       </c>
@@ -851,7 +909,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D29">
         <v>494</v>
       </c>
@@ -862,7 +920,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D30">
         <v>485</v>
       </c>
@@ -873,7 +931,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D31">
         <v>477</v>
       </c>
@@ -884,7 +942,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D32">
         <v>450</v>
       </c>
@@ -1116,6 +1174,46 @@
     <row r="58" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F58">
         <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
